--- a/biology/Microbiologie/Aeromonas_salmonicida/Aeromonas_salmonicida.xlsx
+++ b/biology/Microbiologie/Aeromonas_salmonicida/Aeromonas_salmonicida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeromonas salmonicida est une espèce de bactéries à gram négatif de la famille des Aeromonadaceae. On la rencontre généralement en eau douce ou peu saline, et elle est notamment responsable d'une infection épidémique en aquaculture, la furonculose des saumons et des truites.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 octobre 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 octobre 2015) :
 sous-espèce Aeromonas salmonicida achromogenes (Smith, 1963) Schubert, 1967
 sous-espèce Aeromonas salmonicida masoucida Kimura, 1969
 sous-espèce Aeromonas salmonicida pectinolytica Pavan &amp; al., 2000
 sous-espèce Aeromonas salmonicida salmonicida (Lehmann &amp; Neumann, 1896) Schubert, 1967
 sous-espèce Aeromonas salmonicida smithia Austin &amp; al., 1989
-Selon NCBI  (1 octobre 2015)[3] :
+Selon NCBI  (1 octobre 2015) :
 sous-espèce Aeromonas salmonicida subsp. achromogenes
 sous-espèce Aeromonas salmonicida subsp. achromogenes AS03
 sous-espèce Aeromonas salmonicida subsp. flounderacida
@@ -531,7 +545,7 @@
 sous-espèce Aeromonas salmonicida subsp. salmonicida 01-B526
 sous-espèce Aeromonas salmonicida subsp. salmonicida A449
 sous-espèce Aeromonas salmonicida subsp. smithia
-Selon World Register of Marine Species                               (1 octobre 2015)[4] :
+Selon World Register of Marine Species                               (1 octobre 2015) :
 sous-espèce Aeromonas salmonicida salmonicida (Lehmann &amp; Neumann, 1896) Griffin, Snieszko &amp; Friddle, 1953</t>
         </is>
       </c>
